--- a/full_name_patches.xlsx
+++ b/full_name_patches.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kgf\Documents\own\Wissenschaft\icmpc-escom-2021-programme\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{277DE276-58FC-44FF-A08E-5378EAEB05D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{56DFAA79-1F6E-4E32-8BAC-4DE3D501CF58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1388" uniqueCount="1308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1389" uniqueCount="1308">
   <si>
     <t>A.R, Prathima</t>
   </si>
@@ -4793,8 +4793,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1302"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A538" workbookViewId="0">
+      <selection activeCell="B560" sqref="B560"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7708,6 +7708,9 @@
       <c r="A558" s="1" t="s">
         <v>554</v>
       </c>
+      <c r="B558" s="1" t="s">
+        <v>1305</v>
+      </c>
     </row>
     <row r="559" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A559" t="s">

--- a/full_name_patches.xlsx
+++ b/full_name_patches.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kgf\Documents\own\Wissenschaft\icmpc-escom-2021-programme\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kgf\Documents\own\Wissenschaft\icmpc-escom-2021-programme\icmpc_escom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{56DFAA79-1F6E-4E32-8BAC-4DE3D501CF58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F78CB6D1-2A92-42EA-BDF8-1363915401E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="full_names" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1389" uniqueCount="1308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1397" uniqueCount="1312">
   <si>
     <t>A.R, Prathima</t>
   </si>
@@ -3944,12 +3944,24 @@
   </si>
   <si>
     <t>Munoz-Gil, Gorka</t>
+  </si>
+  <si>
+    <t>Ilari, B.</t>
+  </si>
+  <si>
+    <t>Cohen, A. J.; Russo, F. A.; Ilari, B.; Gudmundsdottir, H.R.; Beynon, C.; Lüdke, K. M.; Heydon, R.; Fancourt, D.</t>
+  </si>
+  <si>
+    <t>Russo, F. A.</t>
+  </si>
+  <si>
+    <t>van Dyck, Edith</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -4790,11 +4802,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1302"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B1304"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A538" workbookViewId="0">
-      <selection activeCell="B560" sqref="B560"/>
+    <sheetView tabSelected="1" topLeftCell="A233" workbookViewId="0">
+      <selection activeCell="A253" sqref="A253"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5852,6 +5864,9 @@
       <c r="A200" t="s">
         <v>197</v>
       </c>
+      <c r="B200" t="s">
+        <v>1309</v>
+      </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
@@ -7424,4150 +7439,4175 @@
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
+        <v>1308</v>
+      </c>
+      <c r="B504" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="513" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="514" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="515" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="516" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="517" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="518" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="519" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="520" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="521" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="522" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="523" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="524" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="525" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="526" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="527" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="528" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="529" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="530" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="531" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="532" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="533" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="534" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="535" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="536" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="537" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="538" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="539" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="540" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="541" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="542" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="543" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A543" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="543" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A543" s="1" t="s">
+    <row r="544" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A544" s="1" t="s">
         <v>539</v>
       </c>
-      <c r="B543" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="544" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A544" t="s">
+      <c r="B544" t="s">
         <v>540</v>
       </c>
     </row>
     <row r="545" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="546" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="547" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="548" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A548" t="s">
         <v>543</v>
       </c>
-      <c r="B547" s="1" t="s">
+      <c r="B548" s="1" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="548" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A548" s="1" t="s">
+    <row r="549" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A549" s="1" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="549" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A549" t="s">
+    <row r="550" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A550" t="s">
         <v>545</v>
       </c>
-      <c r="B549" s="1" t="s">
+      <c r="B550" s="1" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="550" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A550" s="1" t="s">
+    <row r="551" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A551" s="1" t="s">
         <v>546</v>
-      </c>
-    </row>
-    <row r="551" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A551" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="552" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="553" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="554" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="555" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="556" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="557" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="558" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A558" t="s">
         <v>553</v>
-      </c>
-      <c r="B557" s="1" t="s">
-        <v>1305</v>
-      </c>
-    </row>
-    <row r="558" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A558" s="1" t="s">
-        <v>554</v>
       </c>
       <c r="B558" s="1" t="s">
         <v>1305</v>
       </c>
     </row>
-    <row r="559" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A559" t="s">
-        <v>555</v>
+    <row r="559" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A559" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B559" s="1" t="s">
+        <v>1305</v>
       </c>
     </row>
     <row r="560" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="561" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="562" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="563" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="564" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="565" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="566" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="567" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="568" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="569" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="570" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="571" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="572" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A572" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="572" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A572" s="1" t="s">
+    <row r="573" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A573" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="B572" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="573" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A573" t="s">
+      <c r="B573" t="s">
         <v>569</v>
       </c>
     </row>
     <row r="574" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="575" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="576" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="577" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="578" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="579" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="580" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="581" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="582" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="583" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="584" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="585" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="586" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="587" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="588" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="589" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="590" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="591" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="592" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="593" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="594" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="595" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="596" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="597" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="598" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="599" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="600" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="601" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="602" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="603" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="604" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="605" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="606" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="607" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="608" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="609" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="610" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="611" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="612" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A612" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="612" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A612" s="1" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="613" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A613" t="s">
-        <v>609</v>
-      </c>
-      <c r="B613" s="1" t="s">
+    <row r="613" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A613" s="1" t="s">
         <v>608</v>
       </c>
     </row>
     <row r="614" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
-        <v>610</v>
+        <v>609</v>
+      </c>
+      <c r="B614" s="1" t="s">
+        <v>608</v>
       </c>
     </row>
     <row r="615" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="616" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="617" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="618" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="619" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="620" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="621" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A621" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="622" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="623" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A623" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="624" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A624" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="625" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A625" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="625" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A625" s="1" t="s">
+    <row r="626" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A626" s="1" t="s">
         <v>621</v>
       </c>
-      <c r="B625" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="626" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A626" t="s">
+      <c r="B626" t="s">
         <v>622</v>
       </c>
     </row>
     <row r="627" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A627" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="628" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="629" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="630" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A630" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="631" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A631" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="632" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A632" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="633" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A633" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="634" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A634" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="635" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A635" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="636" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A636" t="s">
-        <v>632</v>
-      </c>
-      <c r="B636" t="s">
         <v>631</v>
       </c>
     </row>
     <row r="637" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A637" t="s">
-        <v>633</v>
+        <v>632</v>
+      </c>
+      <c r="B637" t="s">
+        <v>631</v>
       </c>
     </row>
     <row r="638" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A638" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="639" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A639" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="640" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A640" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="641" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A641" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="642" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A642" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="643" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A643" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="644" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A644" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="645" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A645" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="646" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A646" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="647" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A647" t="s">
         <v>642</v>
       </c>
-      <c r="B646" s="1" t="s">
+      <c r="B647" s="1" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="647" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A647" s="1" t="s">
+    <row r="648" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A648" s="1" t="s">
         <v>643</v>
-      </c>
-    </row>
-    <row r="648" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A648" t="s">
-        <v>644</v>
       </c>
     </row>
     <row r="649" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A649" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="650" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A650" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="651" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A651" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="652" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A652" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="653" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A653" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="654" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A654" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="655" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A655" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="656" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A656" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="657" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A657" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="658" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A658" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="659" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A659" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="660" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A660" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="661" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A661" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="662" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A662" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="663" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A663" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="664" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A664" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="665" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A665" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="666" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A666" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="667" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A667" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="668" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A668" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="669" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A669" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="670" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A670" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="671" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A671" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="672" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A672" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="673" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A673" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="674" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A674" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="675" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A675" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="676" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A676" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="677" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A677" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="678" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A678" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="679" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A679" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="680" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A680" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="681" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A681" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="682" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A682" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="683" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A683" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="684" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A684" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="685" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A685" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="686" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A686" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="687" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A687" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="688" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A688" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="689" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A689" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="690" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A690" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="691" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A691" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="692" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A692" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="693" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A693" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="694" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A694" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="695" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A695" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="696" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A696" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="697" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A697" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="698" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A698" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="699" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A699" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="700" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A700" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="701" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A701" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="702" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A702" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="702" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A702" s="1" t="s">
+    <row r="703" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A703" s="1" t="s">
         <v>698</v>
       </c>
-      <c r="B702" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="703" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A703" t="s">
+      <c r="B703" t="s">
         <v>699</v>
       </c>
     </row>
     <row r="704" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A704" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="705" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A705" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="706" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A706" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="707" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A707" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="708" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A708" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="709" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A709" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="710" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A710" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="711" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A711" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="712" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A712" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="713" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A713" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="714" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A714" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="715" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A715" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="716" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A716" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="717" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A717" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="717" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A717" s="1" t="s">
+    <row r="718" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A718" s="1" t="s">
         <v>713</v>
       </c>
-      <c r="B717" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="718" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A718" t="s">
+      <c r="B718" t="s">
         <v>714</v>
       </c>
     </row>
     <row r="719" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A719" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="720" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A720" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="721" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A721" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="722" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A722" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="723" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A723" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="724" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A724" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="725" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A725" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="726" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A726" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="727" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A727" t="s">
-        <v>723</v>
-      </c>
-      <c r="B727" t="s">
-        <v>1306</v>
+        <v>722</v>
       </c>
     </row>
     <row r="728" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A728" t="s">
-        <v>724</v>
+        <v>723</v>
+      </c>
+      <c r="B728" t="s">
+        <v>1306</v>
       </c>
     </row>
     <row r="729" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A729" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="730" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A730" t="s">
         <v>725</v>
       </c>
     </row>
-    <row r="730" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A730" s="1" t="s">
+    <row r="731" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A731" s="1" t="s">
         <v>726</v>
       </c>
-      <c r="B730" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="731" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A731" t="s">
+      <c r="B731" t="s">
         <v>727</v>
       </c>
     </row>
     <row r="732" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A732" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="733" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A733" t="s">
         <v>728</v>
-      </c>
-    </row>
-    <row r="733" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A733" s="1" t="s">
-        <v>729</v>
-      </c>
-      <c r="B733" s="1" t="s">
-        <v>730</v>
       </c>
     </row>
     <row r="734" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A734" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="B734" s="1" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="735" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A735" t="s">
-        <v>731</v>
+    <row r="735" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A735" s="1" t="s">
+        <v>730</v>
       </c>
     </row>
     <row r="736" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A736" t="s">
-        <v>732</v>
+        <v>731</v>
+      </c>
+      <c r="B736" s="1" t="s">
+        <v>730</v>
       </c>
     </row>
     <row r="737" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A737" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="738" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A738" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="739" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A739" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="740" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A740" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="741" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A741" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="742" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A742" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="743" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A743" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="744" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A744" t="s">
         <v>739</v>
       </c>
     </row>
-    <row r="744" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A744" s="1" t="s">
+    <row r="745" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A745" s="1" t="s">
         <v>740</v>
       </c>
-      <c r="B744" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="745" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A745" t="s">
+      <c r="B745" t="s">
         <v>741</v>
       </c>
     </row>
     <row r="746" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A746" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="747" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A747" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="748" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A748" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="749" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A749" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="750" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A750" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="751" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A751" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="752" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A752" t="s">
         <v>747</v>
       </c>
     </row>
-    <row r="752" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A752" s="1" t="s">
+    <row r="753" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A753" s="1" t="s">
         <v>748</v>
       </c>
-      <c r="B752" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="753" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A753" t="s">
+      <c r="B753" t="s">
         <v>749</v>
       </c>
     </row>
     <row r="754" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A754" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="755" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A755" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="756" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A756" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="757" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A757" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="758" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A758" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="759" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A759" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="760" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A760" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="761" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A761" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="762" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A762" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="763" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A763" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="764" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A764" t="s">
         <v>759</v>
       </c>
     </row>
-    <row r="764" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A764" s="1" t="s">
+    <row r="765" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A765" s="1" t="s">
         <v>760</v>
       </c>
-      <c r="B764" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="765" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A765" t="s">
+      <c r="B765" t="s">
         <v>761</v>
       </c>
     </row>
     <row r="766" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A766" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="767" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A767" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="768" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A768" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="769" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A769" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="770" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A770" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="771" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A771" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="772" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A772" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="773" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A773" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="774" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A774" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="775" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A775" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="776" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A776" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="777" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A777" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="778" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A778" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="779" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A779" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="780" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A780" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="781" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A781" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="782" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A782" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="783" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A783" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="784" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A784" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="785" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A785" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="786" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A786" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="787" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A787" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="788" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A788" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="789" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A789" t="s">
         <v>784</v>
       </c>
     </row>
-    <row r="789" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A789" s="1" t="s">
+    <row r="790" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A790" s="1" t="s">
         <v>785</v>
       </c>
-      <c r="B789" s="1" t="s">
+      <c r="B790" s="1" t="s">
         <v>1307</v>
-      </c>
-    </row>
-    <row r="790" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A790" t="s">
-        <v>786</v>
       </c>
     </row>
     <row r="791" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A791" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="792" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A792" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="793" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A793" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="794" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A794" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="795" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A795" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="796" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A796" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="797" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A797" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="798" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A798" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="799" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A799" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="800" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A800" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="801" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A801" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="802" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A802" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="803" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A803" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="804" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A804" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="805" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A805" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="806" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A806" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="807" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A807" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="808" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A808" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="809" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A809" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="810" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A810" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="811" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A811" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="812" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A812" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="813" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A813" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="814" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A814" t="s">
         <v>809</v>
       </c>
     </row>
-    <row r="814" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A814" s="1" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="815" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A815" t="s">
-        <v>811</v>
-      </c>
-      <c r="B815" s="1" t="s">
+    <row r="815" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A815" s="1" t="s">
         <v>810</v>
       </c>
     </row>
     <row r="816" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A816" t="s">
-        <v>812</v>
+        <v>811</v>
+      </c>
+      <c r="B816" s="1" t="s">
+        <v>810</v>
       </c>
     </row>
     <row r="817" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A817" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="818" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A818" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="819" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A819" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="820" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A820" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="821" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A821" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="822" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A822" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="823" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A823" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="824" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A824" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="825" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A825" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="826" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A826" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="827" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A827" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="828" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A828" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="829" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A829" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="830" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A830" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="831" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A831" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="832" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A832" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="833" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A833" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="834" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A834" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="835" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A835" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="836" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A836" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="837" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A837" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="838" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A838" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="839" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A839" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="840" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A840" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="841" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A841" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="842" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A842" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="843" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A843" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="844" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A844" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="845" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A845" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="846" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A846" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="847" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A847" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="848" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A848" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="849" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A849" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="850" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A850" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="851" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A851" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="852" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A852" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="853" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A853" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="854" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A854" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="855" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A855" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="856" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A856" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="857" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A857" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="858" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A858" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="859" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A859" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="860" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A860" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="861" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A861" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="862" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A862" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="863" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A863" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="864" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A864" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="865" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A865" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="866" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A866" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="867" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A867" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="868" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A868" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="869" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A869" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="870" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A870" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="871" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A871" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="872" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A872" t="s">
         <v>867</v>
       </c>
-      <c r="B871" s="1" t="s">
+      <c r="B872" s="1" t="s">
         <v>868</v>
       </c>
     </row>
-    <row r="872" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A872" s="1" t="s">
+    <row r="873" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A873" s="1" t="s">
         <v>868</v>
-      </c>
-    </row>
-    <row r="873" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A873" t="s">
-        <v>869</v>
       </c>
     </row>
     <row r="874" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A874" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="875" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A875" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="876" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A876" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="877" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A877" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="878" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A878" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="879" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A879" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="880" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A880" t="s">
         <v>875</v>
       </c>
     </row>
-    <row r="880" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A880" s="1" t="s">
+    <row r="881" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A881" s="1" t="s">
         <v>876</v>
       </c>
-      <c r="B880" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="881" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A881" t="s">
+      <c r="B881" t="s">
         <v>877</v>
       </c>
     </row>
     <row r="882" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A882" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="883" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A883" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="884" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A884" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="885" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A885" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="886" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A886" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="887" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A887" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="888" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A888" t="s">
         <v>883</v>
       </c>
     </row>
-    <row r="888" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A888" s="1" t="s">
+    <row r="889" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A889" s="1" t="s">
         <v>884</v>
       </c>
-      <c r="B888" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="889" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A889" t="s">
+      <c r="B889" t="s">
         <v>885</v>
       </c>
     </row>
     <row r="890" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A890" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="891" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A891" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="892" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A892" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="893" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A893" t="s">
         <v>888</v>
       </c>
     </row>
-    <row r="893" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A893" s="1" t="s">
+    <row r="894" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A894" s="1" t="s">
         <v>889</v>
       </c>
-      <c r="B893" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="894" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A894" t="s">
+      <c r="B894" t="s">
         <v>890</v>
       </c>
     </row>
     <row r="895" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A895" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="896" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A896" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="897" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A897" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="898" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A898" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="899" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A899" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="900" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A900" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="901" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A901" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="902" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A902" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="903" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A903" t="s">
         <v>898</v>
       </c>
     </row>
-    <row r="903" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A903" s="1" t="s">
+    <row r="904" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A904" s="1" t="s">
         <v>899</v>
       </c>
-      <c r="B903" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="904" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A904" t="s">
+      <c r="B904" t="s">
         <v>900</v>
       </c>
     </row>
     <row r="905" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A905" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="906" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A906" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="907" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A907" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="908" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A908" t="s">
         <v>903</v>
       </c>
     </row>
-    <row r="908" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A908" s="1" t="s">
+    <row r="909" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A909" s="1" t="s">
         <v>904</v>
       </c>
-      <c r="B908" t="s">
+      <c r="B909" t="s">
         <v>903</v>
       </c>
     </row>
-    <row r="909" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A909" t="s">
+    <row r="910" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A910" t="s">
         <v>905</v>
       </c>
     </row>
-    <row r="910" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A910" s="1" t="s">
+    <row r="911" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A911" s="1" t="s">
         <v>906</v>
       </c>
-      <c r="B910" t="s">
+      <c r="B911" t="s">
         <v>905</v>
-      </c>
-    </row>
-    <row r="911" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A911" t="s">
-        <v>907</v>
       </c>
     </row>
     <row r="912" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A912" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="913" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A913" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="914" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A914" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="915" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A915" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="916" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A916" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="917" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A917" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="918" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A918" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="919" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A919" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="920" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A920" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="921" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A921" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="922" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A922" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="923" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A923" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="924" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A924" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="925" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A925" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="926" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A926" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="927" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A927" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="928" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A928" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="929" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A929" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="930" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A930" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="931" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A931" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="932" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A932" t="s">
         <v>927</v>
       </c>
     </row>
-    <row r="932" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A932" s="1" t="s">
+    <row r="933" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A933" s="1" t="s">
         <v>928</v>
       </c>
-      <c r="B932" t="s">
-        <v>929</v>
-      </c>
-    </row>
-    <row r="933" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A933" t="s">
+      <c r="B933" t="s">
         <v>929</v>
       </c>
     </row>
     <row r="934" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A934" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="935" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A935" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="936" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A936" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="937" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A937" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="938" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A938" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="939" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A939" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="940" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A940" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="941" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A941" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="942" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A942" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="943" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A943" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="944" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A944" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="945" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A945" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="946" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A946" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="947" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A947" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="948" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A948" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="949" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A949" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="950" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A950" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="951" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A951" t="s">
         <v>946</v>
       </c>
     </row>
-    <row r="951" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A951" s="1" t="s">
+    <row r="952" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A952" s="1" t="s">
         <v>947</v>
       </c>
-      <c r="B951" t="s">
-        <v>948</v>
-      </c>
-    </row>
-    <row r="952" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A952" t="s">
+      <c r="B952" t="s">
         <v>948</v>
       </c>
     </row>
     <row r="953" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A953" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="954" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A954" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="955" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A955" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="956" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A956" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="957" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A957" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="958" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A958" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="959" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A959" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="960" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A960" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="961" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A961" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="962" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A962" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="963" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A963" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="964" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A964" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="965" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A965" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="966" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A966" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="967" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A967" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="968" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A968" t="s">
         <v>963</v>
       </c>
-      <c r="B967" s="1" t="s">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="968" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A968" s="1" t="s">
+      <c r="B968" s="1" t="s">
         <v>964</v>
       </c>
     </row>
     <row r="969" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A969" s="1" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="970" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A970" s="1" t="s">
         <v>965</v>
       </c>
-      <c r="B969" s="1" t="s">
+      <c r="B970" s="1" t="s">
         <v>964</v>
-      </c>
-    </row>
-    <row r="970" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A970" t="s">
-        <v>966</v>
       </c>
     </row>
     <row r="971" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A971" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="972" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A972" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="973" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A973" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="974" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A974" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
     </row>
     <row r="975" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A975" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="976" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A976" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="977" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A977" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="978" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A978" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="979" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A979" t="s">
         <v>974</v>
       </c>
     </row>
-    <row r="979" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A979" s="1" t="s">
+    <row r="980" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A980" s="1" t="s">
         <v>975</v>
       </c>
-      <c r="B979" t="s">
+      <c r="B980" t="s">
         <v>976</v>
       </c>
     </row>
-    <row r="980" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A980" t="s">
+    <row r="981" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A981" t="s">
         <v>976</v>
       </c>
     </row>
-    <row r="981" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A981" s="1" t="s">
-        <v>977</v>
-      </c>
-    </row>
-    <row r="982" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A982" t="s">
-        <v>978</v>
-      </c>
-      <c r="B982" s="1" t="s">
+    <row r="982" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A982" s="1" t="s">
         <v>977</v>
       </c>
     </row>
     <row r="983" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A983" t="s">
-        <v>979</v>
+        <v>978</v>
+      </c>
+      <c r="B983" s="1" t="s">
+        <v>977</v>
       </c>
     </row>
     <row r="984" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A984" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="985" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A985" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="986" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A986" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
     </row>
     <row r="987" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A987" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
     </row>
     <row r="988" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A988" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
     </row>
     <row r="989" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A989" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="990" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A990" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="991" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A991" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="992" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A992" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="993" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A993" t="s">
-        <v>989</v>
+        <v>1310</v>
+      </c>
+      <c r="B993" t="s">
+        <v>988</v>
       </c>
     </row>
     <row r="994" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A994" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
     </row>
     <row r="995" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A995" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
     </row>
     <row r="996" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A996" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
     </row>
     <row r="997" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A997" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
     </row>
     <row r="998" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A998" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
     </row>
     <row r="999" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A999" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
     <row r="1000" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1000" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
     </row>
     <row r="1001" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1001" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
     </row>
     <row r="1002" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1002" t="s">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="1003" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1003" s="1" t="s">
-        <v>999</v>
-      </c>
-      <c r="B1003"/>
+        <v>996</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1003" t="s">
+        <v>997</v>
+      </c>
     </row>
     <row r="1004" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1004" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B1004" s="1" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1005" s="1" t="s">
         <v>999</v>
       </c>
-    </row>
-    <row r="1005" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1005" t="s">
-        <v>1001</v>
-      </c>
+      <c r="B1005"/>
     </row>
     <row r="1006" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1006" t="s">
-        <v>1002</v>
+        <v>1000</v>
+      </c>
+      <c r="B1006" s="1" t="s">
+        <v>999</v>
       </c>
     </row>
     <row r="1007" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1007" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="1008" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1008" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="1009" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1009" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="1010" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1010" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="1011" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1011" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="1012" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1012" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="1013" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1013" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="1014" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1014" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="1015" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1015" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="1016" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1016" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="1017" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1017" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="1018" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1018" t="s">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="1019" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1019" s="1" t="s">
-        <v>1015</v>
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1019" t="s">
+        <v>1013</v>
       </c>
     </row>
     <row r="1020" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1020" t="s">
-        <v>1016</v>
-      </c>
-      <c r="B1020" s="1" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1021" s="1" t="s">
         <v>1015</v>
-      </c>
-    </row>
-    <row r="1021" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1021" t="s">
-        <v>1017</v>
       </c>
     </row>
     <row r="1022" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1022" t="s">
-        <v>1018</v>
+        <v>1016</v>
+      </c>
+      <c r="B1022" s="1" t="s">
+        <v>1015</v>
       </c>
     </row>
     <row r="1023" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1023" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="1024" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1024" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="1025" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1025" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="1026" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1026" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="1027" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1027" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="1028" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1028" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="1029" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1029" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="1030" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1030" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="1031" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1031" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="1032" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1032" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="1033" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1033" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="1034" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1034" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="1035" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1035" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="1036" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1036" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="1037" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1037" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="1038" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1038" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="1039" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1039" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="1040" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1040" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="1041" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1041" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="1042" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1042" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="1043" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1043" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="1044" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1044" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="1045" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1045" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="1046" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1046" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="1047" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1047" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="1048" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1048" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="1049" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1049" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="1050" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1050" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="1051" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1051" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="1052" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1052" t="s">
-        <v>1048</v>
-      </c>
-    </row>
-    <row r="1053" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1053" s="1" t="s">
-        <v>1049</v>
-      </c>
-      <c r="B1053" t="s">
-        <v>1050</v>
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1053" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="1054" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1054" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1055" s="1" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B1055" t="s">
         <v>1050</v>
-      </c>
-    </row>
-    <row r="1055" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1055" t="s">
-        <v>1051</v>
       </c>
     </row>
     <row r="1056" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1056" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="1057" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1057" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="1058" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1058" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="1059" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1059" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="1060" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1060" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="1061" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1061" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="1062" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1062" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="1063" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1063" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="1064" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1064" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="1065" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1065" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="1066" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1066" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="1067" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1067" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="1068" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1068" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="1069" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1069" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="1070" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1070" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="1071" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1071" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="1072" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1072" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1073" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1074" t="s">
         <v>1068</v>
       </c>
     </row>
-    <row r="1073" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1073" t="s">
+    <row r="1075" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1075" t="s">
         <v>1069</v>
       </c>
     </row>
-    <row r="1074" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1074" t="s">
+    <row r="1076" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1076" t="s">
         <v>1070</v>
       </c>
     </row>
-    <row r="1075" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1075" t="s">
+    <row r="1077" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1077" t="s">
         <v>1071</v>
       </c>
     </row>
-    <row r="1076" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1076" t="s">
+    <row r="1078" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1078" t="s">
         <v>1072</v>
       </c>
     </row>
-    <row r="1077" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1077" t="s">
+    <row r="1079" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1079" t="s">
         <v>1073</v>
       </c>
     </row>
-    <row r="1078" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1078" t="s">
+    <row r="1080" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1080" t="s">
         <v>1074</v>
       </c>
     </row>
-    <row r="1079" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1079" t="s">
+    <row r="1081" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1081" t="s">
         <v>1075</v>
       </c>
     </row>
-    <row r="1080" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1080" t="s">
+    <row r="1082" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1082" t="s">
         <v>1076</v>
       </c>
     </row>
-    <row r="1081" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1081" t="s">
+    <row r="1083" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1083" t="s">
         <v>1077</v>
       </c>
     </row>
-    <row r="1082" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1082" t="s">
+    <row r="1084" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1084" t="s">
         <v>1078</v>
       </c>
     </row>
-    <row r="1083" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1083" t="s">
+    <row r="1085" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1085" t="s">
         <v>1079</v>
       </c>
     </row>
-    <row r="1084" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1084" t="s">
+    <row r="1086" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1086" t="s">
         <v>1080</v>
       </c>
     </row>
-    <row r="1085" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1085" t="s">
+    <row r="1087" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1087" t="s">
         <v>1081</v>
       </c>
     </row>
-    <row r="1086" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1086" t="s">
+    <row r="1088" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1088" t="s">
         <v>1082</v>
-      </c>
-    </row>
-    <row r="1087" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1087" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="1088" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1088" s="1" t="s">
-        <v>1084</v>
-      </c>
-      <c r="B1088" t="s">
-        <v>1083</v>
       </c>
     </row>
     <row r="1089" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1089" t="s">
-        <v>1085</v>
-      </c>
-    </row>
-    <row r="1090" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1090" t="s">
-        <v>1086</v>
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1090" s="1" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B1090" t="s">
+        <v>1083</v>
       </c>
     </row>
     <row r="1091" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1091" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="1092" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1092" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="1093" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1093" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="1094" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1094" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="1095" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1095" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="1096" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1096" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="1097" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1097" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="1098" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1098" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="1099" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1099" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="1100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1100" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="1101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1101" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="1102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1102" t="s">
-        <v>1098</v>
-      </c>
-    </row>
-    <row r="1103" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1103" s="1" t="s">
-        <v>1099</v>
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1103" t="s">
+        <v>1097</v>
       </c>
     </row>
     <row r="1104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1104" t="s">
-        <v>1100</v>
-      </c>
-      <c r="B1104" s="1" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1105" s="1" t="s">
         <v>1099</v>
-      </c>
-    </row>
-    <row r="1105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1105" t="s">
-        <v>1101</v>
       </c>
     </row>
     <row r="1106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1106" t="s">
-        <v>1102</v>
+        <v>1100</v>
+      </c>
+      <c r="B1106" s="1" t="s">
+        <v>1099</v>
       </c>
     </row>
     <row r="1107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1107" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="1108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1108" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="1109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1109" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="1110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1110" t="s">
-        <v>1106</v>
-      </c>
-    </row>
-    <row r="1111" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1111" s="1" t="s">
-        <v>1107</v>
-      </c>
-      <c r="B1111" t="s">
-        <v>1108</v>
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1111" t="s">
+        <v>1105</v>
       </c>
     </row>
     <row r="1112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1112" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1113" s="1" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B1113" t="s">
         <v>1108</v>
-      </c>
-    </row>
-    <row r="1113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1113" t="s">
-        <v>1109</v>
       </c>
     </row>
     <row r="1114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1114" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="1115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1115" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="1116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1116" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="1117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1117" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="1118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1118" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="1119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1119" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="1120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1120" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="1121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1121" t="s">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="1122" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1122" s="1" t="s">
-        <v>1118</v>
-      </c>
-      <c r="B1122" t="s">
-        <v>1119</v>
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1122" t="s">
+        <v>1116</v>
       </c>
     </row>
     <row r="1123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1123" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1124" s="1" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B1124" t="s">
         <v>1119</v>
-      </c>
-    </row>
-    <row r="1124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1124" t="s">
-        <v>1120</v>
       </c>
     </row>
     <row r="1125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1125" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="1126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1126" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="1127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1127" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="1128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1128" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="1129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1129" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="1130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1130" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="1131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1131" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="1132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1132" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="1133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1133" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="1134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1134" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="1135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1135" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="1136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1136" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1137" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1138" t="s">
         <v>1132</v>
       </c>
     </row>
-    <row r="1137" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1137" t="s">
+    <row r="1139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1139" t="s">
         <v>1133</v>
       </c>
     </row>
-    <row r="1138" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1138" t="s">
+    <row r="1140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1140" t="s">
         <v>1134</v>
       </c>
     </row>
-    <row r="1139" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1139" s="1" t="s">
+    <row r="1141" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1141" s="1" t="s">
         <v>1135</v>
       </c>
     </row>
-    <row r="1140" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1140" t="s">
+    <row r="1142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1142" t="s">
         <v>1136</v>
       </c>
     </row>
-    <row r="1141" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1141" t="s">
+    <row r="1143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1143" t="s">
         <v>1137</v>
       </c>
     </row>
-    <row r="1142" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1142" t="s">
+    <row r="1144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1144" t="s">
         <v>1138</v>
       </c>
     </row>
-    <row r="1143" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1143" t="s">
+    <row r="1145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1145" t="s">
         <v>1139</v>
       </c>
     </row>
-    <row r="1144" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1144" t="s">
+    <row r="1146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1146" t="s">
         <v>1140</v>
       </c>
     </row>
-    <row r="1145" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1145" t="s">
+    <row r="1147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1147" t="s">
         <v>1141</v>
       </c>
     </row>
-    <row r="1146" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1146" t="s">
+    <row r="1148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1148" t="s">
         <v>1142</v>
       </c>
     </row>
-    <row r="1147" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1147" t="s">
+    <row r="1149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1149" t="s">
         <v>1143</v>
       </c>
     </row>
-    <row r="1148" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1148" t="s">
+    <row r="1150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1150" t="s">
         <v>1144</v>
       </c>
     </row>
-    <row r="1149" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1149" t="s">
+    <row r="1151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1151" t="s">
         <v>1145</v>
       </c>
     </row>
-    <row r="1150" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1150" t="s">
+    <row r="1152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1152" t="s">
         <v>1146</v>
-      </c>
-    </row>
-    <row r="1151" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1151" t="s">
-        <v>1147</v>
-      </c>
-    </row>
-    <row r="1152" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1152" s="1" t="s">
-        <v>1148</v>
-      </c>
-      <c r="B1152" t="s">
-        <v>1149</v>
       </c>
     </row>
     <row r="1153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1153" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1154" s="1" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B1154" t="s">
         <v>1149</v>
-      </c>
-    </row>
-    <row r="1154" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1154" t="s">
-        <v>1150</v>
       </c>
     </row>
     <row r="1155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1155" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="1156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1156" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="1157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1157" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="1158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1158" t="s">
-        <v>1154</v>
-      </c>
-    </row>
-    <row r="1159" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1159" s="1" t="s">
-        <v>1155</v>
-      </c>
-      <c r="B1159" t="s">
-        <v>1156</v>
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1159" t="s">
+        <v>1153</v>
       </c>
     </row>
     <row r="1160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1160" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="1161" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1161" s="1" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B1161" t="s">
         <v>1156</v>
-      </c>
-    </row>
-    <row r="1161" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1161" t="s">
-        <v>1157</v>
       </c>
     </row>
     <row r="1162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1162" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="1163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1163" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="1164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1164" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="1165" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1165" s="1" t="s">
-        <v>1161</v>
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="1165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1165" t="s">
+        <v>1159</v>
       </c>
     </row>
     <row r="1166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1166" t="s">
-        <v>1162</v>
-      </c>
-    </row>
-    <row r="1167" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1167" t="s">
-        <v>1163</v>
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1167" s="1" t="s">
+        <v>1161</v>
       </c>
     </row>
     <row r="1168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1168" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="1169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1169" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="1170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1170" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="1171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1171" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="1172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1172" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="1173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1173" t="s">
-        <v>1169</v>
-      </c>
-    </row>
-    <row r="1174" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1174" s="1" t="s">
-        <v>1170</v>
-      </c>
-      <c r="B1174" t="s">
-        <v>1171</v>
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1174" t="s">
+        <v>1168</v>
       </c>
     </row>
     <row r="1175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1175" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1176" s="1" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B1176" t="s">
         <v>1171</v>
-      </c>
-    </row>
-    <row r="1176" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1176" t="s">
-        <v>1172</v>
       </c>
     </row>
     <row r="1177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1177" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="1178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1178" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="1179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1179" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="1180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1180" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="1181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1181" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="1182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1182" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="1183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1183" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="1184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1184" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="1185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1185" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="1186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1186" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="1187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1187" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="1188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1188" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="1189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1189" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="1190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1190" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="1191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1191" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="1192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1192" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="1193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1193" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="1194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1194" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="1195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1195" t="s">
-        <v>1191</v>
+        <v>1189</v>
+      </c>
+      <c r="B1195" t="s">
+        <v>1311</v>
       </c>
     </row>
     <row r="1196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1196" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="1197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1197" t="s">
-        <v>1193</v>
-      </c>
-    </row>
-    <row r="1198" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1198" s="1" t="s">
-        <v>1194</v>
-      </c>
-      <c r="B1198" t="s">
-        <v>1195</v>
+        <v>1191</v>
+      </c>
+      <c r="B1197" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1198" t="s">
+        <v>1192</v>
       </c>
     </row>
     <row r="1199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1199" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1200" s="1" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B1200" t="s">
         <v>1195</v>
-      </c>
-    </row>
-    <row r="1200" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1200" t="s">
-        <v>1196</v>
       </c>
     </row>
     <row r="1201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1201" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="1202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1202" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="1203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1203" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="1204" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1204" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="1205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1205" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="1206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1206" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="1207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1207" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="1208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1208" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="1209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1209" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="1210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1210" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="1211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1211" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="1212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1212" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="1213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1213" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="1214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1214" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="1215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1215" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="1216" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1216" t="s">
-        <v>1212</v>
-      </c>
-    </row>
-    <row r="1217" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1217" s="1" t="s">
-        <v>1213</v>
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="1217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1217" t="s">
+        <v>1211</v>
       </c>
     </row>
     <row r="1218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1218" t="s">
-        <v>1214</v>
-      </c>
-      <c r="B1218" s="1" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1219" s="1" t="s">
         <v>1213</v>
-      </c>
-    </row>
-    <row r="1219" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1219" t="s">
-        <v>1215</v>
       </c>
     </row>
     <row r="1220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1220" t="s">
-        <v>1216</v>
+        <v>1214</v>
+      </c>
+      <c r="B1220" s="1" t="s">
+        <v>1213</v>
       </c>
     </row>
     <row r="1221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1221" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="1222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1222" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="1223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1223" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="1224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1224" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="1225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1225" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="1226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1226" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="1227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1227" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="1228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1228" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="1229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1229" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="1230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1230" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="1231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1231" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="1232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1232" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="1233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1233" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="1234" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1234" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="1235" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1235" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="1236" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1236" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="1237" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1237" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="1238" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1238" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="1239" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1239" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="1240" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1240" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="1241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1241" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="1242" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1242" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="1243" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1243" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="1244" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1244" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="1245" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1245" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="1246" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1246" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="1247" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1247" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="1248" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1248" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="1249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1249" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="1250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1250" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="1251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1251" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="1252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1252" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="1253" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1253" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="1254" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1254" t="s">
         <v>1248</v>
-      </c>
-      <c r="B1252" s="1" t="s">
-        <v>1249</v>
-      </c>
-    </row>
-    <row r="1253" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1253" s="1" t="s">
-        <v>1249</v>
-      </c>
-    </row>
-    <row r="1254" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1254" s="1" t="s">
-        <v>1250</v>
       </c>
       <c r="B1254" s="1" t="s">
         <v>1249</v>
       </c>
     </row>
-    <row r="1255" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1255" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="1256" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1256" t="s">
-        <v>1252</v>
+    <row r="1255" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1255" s="1" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="1256" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1256" s="1" t="s">
+        <v>1250</v>
+      </c>
+      <c r="B1256" s="1" t="s">
+        <v>1249</v>
       </c>
     </row>
     <row r="1257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1257" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="1258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1258" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="1259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1259" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="1260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1260" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="1261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1261" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="1262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1262" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="1263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1263" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="1264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1264" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="1265" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1265" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="1266" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1266" t="s">
         <v>1260</v>
       </c>
     </row>
-    <row r="1265" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1265" t="s">
+    <row r="1267" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1267" t="s">
         <v>1261</v>
       </c>
     </row>
-    <row r="1266" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1266" t="s">
+    <row r="1268" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1268" t="s">
         <v>1262</v>
       </c>
     </row>
-    <row r="1267" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1267" t="s">
+    <row r="1269" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1269" t="s">
         <v>1263</v>
       </c>
     </row>
-    <row r="1268" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1268" t="s">
+    <row r="1270" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1270" t="s">
         <v>1264</v>
       </c>
     </row>
-    <row r="1269" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1269" t="s">
+    <row r="1271" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1271" t="s">
         <v>1265</v>
       </c>
     </row>
-    <row r="1270" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1270" t="s">
+    <row r="1272" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1272" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="1271" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1271" t="s">
+    <row r="1273" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1273" t="s">
         <v>1267</v>
       </c>
     </row>
-    <row r="1272" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1272" t="s">
+    <row r="1274" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1274" t="s">
         <v>1268</v>
       </c>
     </row>
-    <row r="1273" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1273" t="s">
+    <row r="1275" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1275" t="s">
         <v>1269</v>
       </c>
     </row>
-    <row r="1274" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1274" t="s">
+    <row r="1276" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1276" t="s">
         <v>1270</v>
       </c>
     </row>
-    <row r="1275" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1275" t="s">
+    <row r="1277" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1277" t="s">
         <v>1271</v>
       </c>
     </row>
-    <row r="1276" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1276" t="s">
+    <row r="1278" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1278" t="s">
         <v>1272</v>
       </c>
     </row>
-    <row r="1277" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1277" t="s">
+    <row r="1279" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1279" t="s">
         <v>1273</v>
       </c>
     </row>
-    <row r="1278" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1278" t="s">
+    <row r="1280" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1280" t="s">
         <v>1274</v>
-      </c>
-    </row>
-    <row r="1279" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1279" s="1" t="s">
-        <v>1275</v>
-      </c>
-      <c r="B1279" t="s">
-        <v>1274</v>
-      </c>
-    </row>
-    <row r="1280" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1280" t="s">
-        <v>1276</v>
       </c>
     </row>
     <row r="1281" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1281" s="1" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="B1281" t="s">
-        <v>1278</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="1282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1282" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="1283" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1283" s="1" t="s">
+        <v>1277</v>
+      </c>
+      <c r="B1283" t="s">
         <v>1278</v>
-      </c>
-    </row>
-    <row r="1283" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1283" t="s">
-        <v>1279</v>
       </c>
     </row>
     <row r="1284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1284" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="1285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1285" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="1286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1286" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="1287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1287" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="1288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1288" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="1289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1289" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="1290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1290" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="1291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1291" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="1292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1292" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="1293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1293" t="s">
-        <v>1289</v>
-      </c>
-    </row>
-    <row r="1294" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1294" s="1" t="s">
-        <v>1290</v>
-      </c>
-      <c r="B1294" t="s">
-        <v>1291</v>
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="1294" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1294" t="s">
+        <v>1288</v>
       </c>
     </row>
     <row r="1295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1295" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="1296" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1296" s="1" t="s">
+        <v>1290</v>
+      </c>
+      <c r="B1296" t="s">
         <v>1291</v>
       </c>
     </row>
-    <row r="1296" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1296" t="s">
-        <v>1292</v>
-      </c>
-    </row>
-    <row r="1297" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1297" s="1" t="s">
-        <v>1293</v>
+    <row r="1297" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1297" t="s">
+        <v>1291</v>
       </c>
     </row>
     <row r="1298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1298" t="s">
-        <v>1294</v>
-      </c>
-      <c r="B1298" s="1" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="1299" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1299" s="1" t="s">
         <v>1293</v>
-      </c>
-    </row>
-    <row r="1299" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1299" t="s">
-        <v>1295</v>
       </c>
     </row>
     <row r="1300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1300" t="s">
-        <v>1296</v>
+        <v>1294</v>
+      </c>
+      <c r="B1300" s="1" t="s">
+        <v>1293</v>
       </c>
     </row>
     <row r="1301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1301" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="1302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1302" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="1303" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1303" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="1304" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1304" t="s">
         <v>1298</v>
       </c>
     </row>
